--- a/data dictionaries/CircusOZ_Data_Dictionary.xlsx
+++ b/data dictionaries/CircusOZ_Data_Dictionary.xlsx
@@ -1,13 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectCollections\Programs\Australia_Cultural_Data_Engine\data_management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16577576-3A8F-451F-AD56-DD4C0A7139D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General Introduction" sheetId="1" r:id="rId1"/>
+    <sheet name="venue_to_place" sheetId="2" r:id="rId2"/>
+    <sheet name="event_to_event" sheetId="4" r:id="rId3"/>
+    <sheet name="person_to_person" sheetId="3" r:id="rId4"/>
+    <sheet name="links_to_relationship" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +28,451 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+  <si>
+    <t>For the purpose of conciseness and ease of comprehension, the description of original tables and a couple of views created for CircusOZ data loading are not described here.</t>
+  </si>
+  <si>
+    <t>This data dictionary provides the mapping plan and general attribute description of each level from CircusOZ to ACDE.</t>
+  </si>
+  <si>
+    <t>The following relationships are extracted from foreign key pairs to construct the relationship records. For the details of the specific attribute selection in each type of relationship, please check ./data_pipelines/CircusOZ/circusoz_Loading.ipynb</t>
+  </si>
+  <si>
+    <t>event - venue</t>
+  </si>
+  <si>
+    <t>person - event - role</t>
+  </si>
+  <si>
+    <t>Attribute Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>data_source</t>
+  </si>
+  <si>
+    <t>_class</t>
+  </si>
+  <si>
+    <t>_class_ori</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>The name of the venue.</t>
+  </si>
+  <si>
+    <t>The full address of the venue.</t>
+  </si>
+  <si>
+    <t>The type of the venue.</t>
+  </si>
+  <si>
+    <t>The class (level) of the record.</t>
+  </si>
+  <si>
+    <t>The original class (table name) of the record.</t>
+  </si>
+  <si>
+    <t>The data source of the record, which is "CircusOZ"</t>
+  </si>
+  <si>
+    <t>If you’re interested in the newly constructed views, please refer to "./codes/circuzoz/circuzoz_CreateViews.sql".</t>
+  </si>
+  <si>
+    <t>CircusOZ'</t>
+  </si>
+  <si>
+    <t>venue'</t>
+  </si>
+  <si>
+    <t>place'</t>
+  </si>
+  <si>
+    <t>VENUE.NAME</t>
+  </si>
+  <si>
+    <t>VENUE.ADDRESS</t>
+  </si>
+  <si>
+    <t>VENUE.TYPE</t>
+  </si>
+  <si>
+    <t>Fully migrate to ACDE.place collection</t>
+  </si>
+  <si>
+    <t>Split the string as a json document having address.country, address.state, address.suburb, address.street, address.postcode, address.ori_address, and then migrate to ACDE.place collection</t>
+  </si>
+  <si>
+    <t>Fully migrate to ACDE.event collection</t>
+  </si>
+  <si>
+    <t>ori_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>alternative_titles</t>
+  </si>
+  <si>
+    <t>umbrella_1</t>
+  </si>
+  <si>
+    <t>umbrella_2</t>
+  </si>
+  <si>
+    <t>date_start_year</t>
+  </si>
+  <si>
+    <t>date_start_month</t>
+  </si>
+  <si>
+    <t>date_start_day</t>
+  </si>
+  <si>
+    <t>date_end_year</t>
+  </si>
+  <si>
+    <t>date_end_month</t>
+  </si>
+  <si>
+    <t>date_end_day</t>
+  </si>
+  <si>
+    <t>id_(AS)</t>
+  </si>
+  <si>
+    <t>id_alt_(AS)</t>
+  </si>
+  <si>
+    <t>category_(FMP)</t>
+  </si>
+  <si>
+    <t>show_name_(FMP)</t>
+  </si>
+  <si>
+    <t>type_(FMP)</t>
+  </si>
+  <si>
+    <t>producer_promoter_(FMP)</t>
+  </si>
+  <si>
+    <t>season_number_(FMP)</t>
+  </si>
+  <si>
+    <t>This is a unique attribute from a specific data source (AusStage).</t>
+  </si>
+  <si>
+    <t>The category of the event belongs to. This is a unique attribute from a specific data source (FMP).</t>
+  </si>
+  <si>
+    <t>The show name of the event. This is a unique attribute from a specific data source (FMP).</t>
+  </si>
+  <si>
+    <t>The type of the event. This is a unique attribute from a specific data source (FMP).</t>
+  </si>
+  <si>
+    <t>The producer or promoter of the event. This is a unique attribute from a specific data source (FMP).</t>
+  </si>
+  <si>
+    <t>The season number of the event belongs to. This is a unique attribute from a specific data source (FMP).</t>
+  </si>
+  <si>
+    <t>The unique identifier of the record.</t>
+  </si>
+  <si>
+    <t>The type of the event.</t>
+  </si>
+  <si>
+    <t>The title of the event.</t>
+  </si>
+  <si>
+    <t>The alternative titles of the event.</t>
+  </si>
+  <si>
+    <t>This is used for the other Festival or other large Event of which the event forms part.</t>
+  </si>
+  <si>
+    <t>This is used for the name of a Festival or other large event of which the Event forms part.</t>
+  </si>
+  <si>
+    <t>The year of start date of the event.</t>
+  </si>
+  <si>
+    <t>The year of end date of the event.</t>
+  </si>
+  <si>
+    <t>The month of end date of the event.</t>
+  </si>
+  <si>
+    <t>The day of end date of the event.</t>
+  </si>
+  <si>
+    <t>The month of start date of the event.</t>
+  </si>
+  <si>
+    <t>The day of start date of the event.</t>
+  </si>
+  <si>
+    <t>event'</t>
+  </si>
+  <si>
+    <t>EVENT_AS.Alt.Event.Name_(AS)</t>
+  </si>
+  <si>
+    <t>EVENT.EVENT.NUMBER</t>
+  </si>
+  <si>
+    <t>EVENT.UMBRELLA.EVENT</t>
+  </si>
+  <si>
+    <t>EVENT.TITLE</t>
+  </si>
+  <si>
+    <t>EVENT.TYPE</t>
+  </si>
+  <si>
+    <t>EVENT.UMBRELLA.EVENT.2</t>
+  </si>
+  <si>
+    <t>year of EVENT.DATE.FROM.(General)</t>
+  </si>
+  <si>
+    <t>month of EVENT.DATE.FROM.(General)</t>
+  </si>
+  <si>
+    <t>day of EVENT.DATE.FROM.(General)</t>
+  </si>
+  <si>
+    <t>year of EVENT.DATE.TO.(General)</t>
+  </si>
+  <si>
+    <t>month of EVENT.DATE.TO.(General)</t>
+  </si>
+  <si>
+    <t>day of EVENT.DATE.TO.(Genera2)</t>
+  </si>
+  <si>
+    <t>EVENT_AS.Event.ID_(AS)</t>
+  </si>
+  <si>
+    <t>EVENT_AS.Event.ID.Alt_(AS)</t>
+  </si>
+  <si>
+    <t>event_FMP.EVENT.Category_(FMP)</t>
+  </si>
+  <si>
+    <t>event_FMP.Event.SHOW.Name_(FMP)</t>
+  </si>
+  <si>
+    <t>event_FMP.Activity_(FMP)</t>
+  </si>
+  <si>
+    <t>event_FMP.Producer.Promoter_(FMP)</t>
+  </si>
+  <si>
+    <t>event_FMP.Season.Number_(FMP)</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>The hosting location of the event.</t>
+  </si>
+  <si>
+    <t>list of locations</t>
+  </si>
+  <si>
+    <t>The json document is constructed as follows: corresponding venue json document joining on VENUE."EVENT.NUMBER"&gt;&gt; coverage_range.place; date_start_year &gt;&gt; coverage_range.date_range.date_start.year; date_start_month &gt;&gt; coverage_range.date_range.date_start.month; date_start_day &gt;&gt; coverage_range.date_range.date_start.day; date_end_year &gt;&gt; coverage_range.date_range.date_end.year; date_end_month &gt;&gt; coverage_range.date_range.date_end.month; date_end_day &gt;&gt; coverage_range.date_range.date_end.day;</t>
+  </si>
+  <si>
+    <t>split the string into array and migrate to ACDE.event collection</t>
+  </si>
+  <si>
+    <t>concatenate 2 strings into array.</t>
+  </si>
+  <si>
+    <t>reconstruct as locations.coverage_range.date_range.date_start.year and migrate to ACDE.event collection.</t>
+  </si>
+  <si>
+    <t>reconstruct as locations.coverage_range.date_range.date_start.month and migrate to ACDE.event collection.</t>
+  </si>
+  <si>
+    <t>reconstruct as locations.coverage_range.date_range.date_start.day and migrate to ACDE.event collection.</t>
+  </si>
+  <si>
+    <t>reconstruct as locations.coverage_range.date_range.date_end.year and migrate to ACDE.event collection.</t>
+  </si>
+  <si>
+    <t>reconstruct as locations.coverage_range.date_range.date_end.month and migrate to ACDE.event collection.</t>
+  </si>
+  <si>
+    <t>reconstruct as locations.coverage_range.date_range.date_end.day and migrate to ACDE.event collection.</t>
+  </si>
+  <si>
+    <t>convert the string into array and rename as types, and then migrate to ACDE.event collection.</t>
+  </si>
+  <si>
+    <t>Fully migrate to ACDE.person collection</t>
+  </si>
+  <si>
+    <t>person'</t>
+  </si>
+  <si>
+    <t>given_names</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>alternative_names</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>videoid_(CO-vids)</t>
+  </si>
+  <si>
+    <t>id_(FMP)</t>
+  </si>
+  <si>
+    <t>notes_(FMP)</t>
+  </si>
+  <si>
+    <t>longterm_roles</t>
+  </si>
+  <si>
+    <t>The family name of the contributor.</t>
+  </si>
+  <si>
+    <t>The given names of the contributor.</t>
+  </si>
+  <si>
+    <t>The display name of the contributor.</t>
+  </si>
+  <si>
+    <t>The alternative names of the contributor.</t>
+  </si>
+  <si>
+    <t>The original id of the person. This is a unique attribute from a specific data source (AusStage).</t>
+  </si>
+  <si>
+    <t>The original id of the person. This is a unique attribute from a specific data source (FMP).</t>
+  </si>
+  <si>
+    <t>The notes of the person record. This is a unique attribute from a specific data source (FMP).</t>
+  </si>
+  <si>
+    <t>The unique identifier that the source video that the person record extracted from. This is a unique attribute from a specific data source (CO-vids).</t>
+  </si>
+  <si>
+    <t>The longterm roles of the person.</t>
+  </si>
+  <si>
+    <t>The gender of the person.</t>
+  </si>
+  <si>
+    <t>PERSON.COMBINED.NAME</t>
+  </si>
+  <si>
+    <t>PERSON.GIVEN_NAMES</t>
+  </si>
+  <si>
+    <t>PERSON.SECOND.NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSON."ALTERNATIVE.SPELLING (Discrepancy or inaccuracy)" </t>
+  </si>
+  <si>
+    <t>PERSON_AS.Gender_(AS) joining on PERSON_AS."PERSON.NUMBER" = PERSON."PERSON.NUMBER"</t>
+  </si>
+  <si>
+    <t>concatenate PERSON_FMP."Personnel.Note.1_(FMP)" amd PERSON_FMP."Personnel.Note.2_(FMP)"</t>
+  </si>
+  <si>
+    <t>PERSON_FMP."Personnel.Number_(FMP)"</t>
+  </si>
+  <si>
+    <t>PERSON_CO."Video.ID_(CO-vids)"</t>
+  </si>
+  <si>
+    <t>PERSON_AS."Contributor.ID_(AS)"</t>
+  </si>
+  <si>
+    <t>The longterm_roles is constructed as list of json documents as follows: 1. PERSON_CO."Video.Id.description_(CO-clips)" as longterm_roles.detailed_role,
+and ROLE."ROLE CATEGORIES" as longterm_roles.broad_role joining on PERSON_CO."ROLE.NUMBER" = ROLE."ROLE.NUMBER"; 2. ROLE."ROLE CATEGORIES" as longterm_roles.broad_role joining on PERSON_FMP."ROLE.NUMBER" = ROLE."ROLE.NUMBER"; 3. concatenate PERSON_AS."Contributor.Function.1_(AS)", PERSON_AS."Contributor.Function.2_(AS)", and PERSON_AS."Contributor.Function.3_(AS)" as longterm_roles.detailed_role and ROLE."ROLE CATEGORIES" as longterm_roles.broad_role joining on ROLE."ROLE.NUMBER" = ROLE_AS."ROLE.NUMBER" and ROLE_AS.ori_attr_name = PERSON_AS.ori_attr_name and ROLE_AS.ori_attr_value = PERSON_AS."Contributor.Function"</t>
+  </si>
+  <si>
+    <t>reconstruct as primary_name.family_name and migrate to ACDE.person collection</t>
+  </si>
+  <si>
+    <t>reconstruct as primary_name.given_names and migrate to ACDE.person collection</t>
+  </si>
+  <si>
+    <t>split the string into array and migrate to ACDE.person collection</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +495,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +807,946 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D07376-B2A9-4BCF-8A5C-13EB0EAC3925}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643AE550-4597-4862-866C-452C948324AF}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="234" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51230D6-30A4-40E8-A7C4-453B388B8371}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="249.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11813DB2-15A7-49E0-9649-DF2EA310FFAF}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="63.6640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data dictionaries/CircusOZ_Data_Dictionary.xlsx
+++ b/data dictionaries/CircusOZ_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectCollections\Programs\Australia_Cultural_Data_Engine\data_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinadrmun/Desktop/June 2023/data/data dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16577576-3A8F-451F-AD56-DD4C0A7139D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E376BD6-9990-AB41-988A-BEF8AD2BBF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Introduction" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>This data dictionary provides the mapping plan and general attribute description of each level from CircusOZ to ACDE.</t>
   </si>
   <si>
-    <t>The following relationships are extracted from foreign key pairs to construct the relationship records. For the details of the specific attribute selection in each type of relationship, please check ./data_pipelines/CircusOZ/circusoz_Loading.ipynb</t>
-  </si>
-  <si>
     <t>event - venue</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
   </si>
   <si>
     <t>The data source of the record, which is "CircusOZ"</t>
-  </si>
-  <si>
-    <t>If you’re interested in the newly constructed views, please refer to "./codes/circuzoz/circuzoz_CreateViews.sql".</t>
   </si>
   <si>
     <t>CircusOZ'</t>
@@ -441,6 +435,12 @@
   </si>
   <si>
     <t>split the string into array and migrate to ACDE.person collection</t>
+  </si>
+  <si>
+    <t>If you’re interested in the newly constructed views, please refer to "https://github.com/acd-engine/jupyterbook/blob/main/misc/circuzoz_CreateViews.sql".</t>
+  </si>
+  <si>
+    <t>The following relationships are extracted from foreign key pairs to construct the relationship records. For the details of the specific attribute selection in each type of relationship, please check "https://github.com/acd-engine/jupyterbook/blob/main/integration%20notebooks/circusoz_Loading.ipynb"</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -525,12 +525,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,34 +808,37 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -850,137 +850,137 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -989,6 +989,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1000,422 +1003,422 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
     <col min="4" max="4" width="47.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="12" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E15" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E16" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="234" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1423,6 +1426,9 @@
     <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1430,288 +1436,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51230D6-30A4-40E8-A7C4-453B388B8371}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="4" max="4" width="60.33203125" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="249.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1719,34 +1728,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11813DB2-15A7-49E0-9649-DF2EA310FFAF}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>